--- a/inputs/qZ.xlsx
+++ b/inputs/qZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gabriele/Desktop/Poli/OMGP_python/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{77DBCFB2-84B3-E145-8B4F-E048C8F7CF13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A86EB0A4-CB31-B445-BB40-0ECFEEEEA453}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="3500" windowWidth="28040" windowHeight="17440" xr2:uid="{2762D2A2-A025-B844-B174-5353F86DCA38}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -399,332 +399,332 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10.1067618616072</v>
+        <v>10.358308170675899</v>
       </c>
       <c r="B2">
-        <v>10.0596188675796</v>
+        <v>10.817693606886399</v>
       </c>
       <c r="C2">
-        <v>10.291984079961701</v>
+        <v>10.805419237911201</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>10.6537573486686</v>
+        <v>10.636972111434799</v>
       </c>
       <c r="B3">
-        <v>10.681971904149099</v>
+        <v>10.3703757655858</v>
       </c>
       <c r="C3">
-        <v>10.431651170248699</v>
+        <v>10.1987171422667</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10.494173936639299</v>
+        <v>10.5438610050881</v>
       </c>
       <c r="B4">
-        <v>10.042431137500699</v>
+        <v>10.8220687868012</v>
       </c>
       <c r="C4">
-        <v>10.015487125636</v>
+        <v>10.421240876018899</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10.7790517232313</v>
+        <v>10.7710545810556</v>
       </c>
       <c r="B5">
-        <v>10.0714454646006</v>
+        <v>10.2615751879238</v>
       </c>
       <c r="C5">
-        <v>10.984063724379199</v>
+        <v>10.0743237618112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10.7150370784007</v>
+        <v>10.474565413259301</v>
       </c>
       <c r="B6">
-        <v>10.521649842464299</v>
+        <v>10.9283844284911</v>
       </c>
       <c r="C6">
-        <v>10.1671684099147</v>
+        <v>10.397241305355299</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10.9037205605563</v>
+        <v>10.1780799205546</v>
       </c>
       <c r="B7">
-        <v>10.0967300257809</v>
+        <v>10.079247163372401</v>
       </c>
       <c r="C7">
-        <v>10.106216344928701</v>
+        <v>10.301505593533101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>10.890922504330799</v>
+        <v>10.789261506812</v>
       </c>
       <c r="B8">
-        <v>10.818148553859601</v>
+        <v>10.454925880307</v>
       </c>
       <c r="C8">
-        <v>10.372409740055501</v>
+        <v>10.897990408932101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10.3341630527375</v>
+        <v>10.021917581472801</v>
       </c>
       <c r="B9">
-        <v>10.8175470920793</v>
+        <v>10.553036799540999</v>
       </c>
       <c r="C9">
-        <v>10.198118402543001</v>
+        <v>10.734879238782799</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10.698745832334801</v>
+        <v>10.6633917093934</v>
       </c>
       <c r="B10">
-        <v>10.722439592366801</v>
+        <v>10.3217857608457</v>
       </c>
       <c r="C10">
-        <v>10.489687638015999</v>
+        <v>10.8173631726515</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10.1978098266859</v>
+        <v>10.5677623480134</v>
       </c>
       <c r="B11">
-        <v>10.149865442477999</v>
+        <v>10.759644968648299</v>
       </c>
       <c r="C11">
-        <v>10.3394934133908</v>
+        <v>10.799596727032901</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10.030540946304599</v>
+        <v>10.165641863347</v>
       </c>
       <c r="B12">
-        <v>10.6596052529083</v>
+        <v>10.271288389806299</v>
       </c>
       <c r="C12">
-        <v>10.951630464777701</v>
+        <v>10.9285038520688</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10.744074260367499</v>
+        <v>10.666901345851199</v>
       </c>
       <c r="B13">
-        <v>10.5185949425105</v>
+        <v>10.745501621902999</v>
       </c>
       <c r="C13">
-        <v>10.9203320398366</v>
+        <v>10.8587942992372</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10.5000224355902</v>
+        <v>10.969768694676899</v>
       </c>
       <c r="B14">
-        <v>10.972974554763899</v>
+        <v>10.0370370585053</v>
       </c>
       <c r="C14">
-        <v>10.0526769976808</v>
+        <v>10.379934908432</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>10.479922141146099</v>
+        <v>10.3606630952758</v>
       </c>
       <c r="B15">
-        <v>10.648991492712399</v>
+        <v>10.8586974590709</v>
       </c>
       <c r="C15">
-        <v>10.737858095517</v>
+        <v>10.7510616211956</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>10.9047222380674</v>
+        <v>10.9493368693512</v>
       </c>
       <c r="B16">
-        <v>10.800330575352399</v>
+        <v>10.3081493099084</v>
       </c>
       <c r="C16">
-        <v>10.2691194263986</v>
+        <v>10.3142801955322</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>10.609866648422599</v>
+        <v>10.5972593135164</v>
       </c>
       <c r="B17">
-        <v>10.453797708726899</v>
+        <v>10.507003369515299</v>
       </c>
       <c r="C17">
-        <v>10.4228356150088</v>
+        <v>10.5965413126671</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>10.6176663895885</v>
+        <v>10.3712652505412</v>
       </c>
       <c r="B18">
-        <v>10.432391503783499</v>
+        <v>10.171090887223301</v>
       </c>
       <c r="C18">
-        <v>10.5478709012148</v>
+        <v>10.2065031298085</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>10.8594423056462</v>
+        <v>10.3387879713597</v>
       </c>
       <c r="B19">
-        <v>10.825313795402</v>
+        <v>10.0205482535294</v>
       </c>
       <c r="C19">
-        <v>10.9427369842769</v>
+        <v>10.6919199448041</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>10.8054894245297</v>
+        <v>10.9675532082861</v>
       </c>
       <c r="B20">
-        <v>10.083469814858899</v>
+        <v>10.2070674347018</v>
       </c>
       <c r="C20">
-        <v>10.4177441043167</v>
+        <v>10.299232624862899</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>10.5767215156147</v>
+        <v>10.933220614607899</v>
       </c>
       <c r="B21">
-        <v>10.133171007607199</v>
+        <v>10.0226814691469</v>
       </c>
       <c r="C21">
-        <v>10.9830524664699</v>
+        <v>10.8332020729219</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>10.182922469414899</v>
+        <v>10.048647202669001</v>
       </c>
       <c r="B22">
-        <v>10.173388613119</v>
+        <v>10.416435849485399</v>
       </c>
       <c r="C22">
-        <v>10.301454948712101</v>
+        <v>10.7636094852928</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>10.239932010568699</v>
+        <v>10.1083348543719</v>
       </c>
       <c r="B23">
-        <v>10.3909378023237</v>
+        <v>10.3251737638432</v>
       </c>
       <c r="C23">
-        <v>10.701098755900899</v>
+        <v>10.9303447350204</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>10.8865119330761</v>
+        <v>10.718286324818701</v>
       </c>
       <c r="B24">
-        <v>10.831379742839101</v>
+        <v>10.235778875870899</v>
       </c>
       <c r="C24">
-        <v>10.666338851584401</v>
+        <v>10.8518183453593</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>10.028674152464101</v>
+        <v>10.8599877081776</v>
       </c>
       <c r="B25">
-        <v>10.8033643916024</v>
+        <v>10.8910371762748</v>
       </c>
       <c r="C25">
-        <v>10.5391264650429</v>
+        <v>10.049231060279499</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>10.4899013885122</v>
+        <v>10.333181174099201</v>
       </c>
       <c r="B26">
-        <v>10.0604711791699</v>
+        <v>10.8069498973392</v>
       </c>
       <c r="C26">
-        <v>10.698105520180301</v>
+        <v>10.555089349272199</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>10.167927145682301</v>
+        <v>10.158007673095801</v>
       </c>
       <c r="B27">
-        <v>10.3992577706136</v>
+        <v>10.145585637888701</v>
       </c>
       <c r="C27">
-        <v>10.6665279134026</v>
+        <v>10.102995388598201</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10.9786806496412</v>
+        <v>10.191995844269</v>
       </c>
       <c r="B28">
-        <v>10.526875830508301</v>
+        <v>10.6640868295374</v>
       </c>
       <c r="C28">
-        <v>10.1781324544003</v>
+        <v>10.1270463638145</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>10.712694471678899</v>
+        <v>10.2621282518169</v>
       </c>
       <c r="B29">
-        <v>10.416799467930799</v>
+        <v>10.9515624029387</v>
       </c>
       <c r="C29">
-        <v>10.1280143997202</v>
+        <v>10.994076174852401</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>10.5004716241548</v>
+        <v>10.617467737147001</v>
       </c>
       <c r="B30">
-        <v>10.656859890973699</v>
+        <v>10.630476657684699</v>
       </c>
       <c r="C30">
-        <v>10.9990803947614</v>
+        <v>10.109181969410299</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>10.4710883745419</v>
+        <v>10.582719788178601</v>
       </c>
       <c r="B31">
-        <v>10.627973359190101</v>
+        <v>10.2135319014301</v>
       </c>
       <c r="C31">
-        <v>10.171121066356401</v>
+        <v>10.7650016843701</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/qZ.xlsx
+++ b/inputs/qZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gabriele/Desktop/Poli/OMGP_python/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A86EB0A4-CB31-B445-BB40-0ECFEEEEA453}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7857A1F1-D7D7-EB4D-B5C6-801AE6AA3EB0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="3500" windowWidth="28040" windowHeight="17440" xr2:uid="{2762D2A2-A025-B844-B174-5353F86DCA38}"/>
   </bookViews>
@@ -382,349 +382,2144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D64CB1-FF5B-8448-8C0A-6A7A78554FBB}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C31"/>
+      <selection activeCell="A2" sqref="A2:E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10.358308170675899</v>
+        <v>10.195516491065501</v>
       </c>
       <c r="B2">
-        <v>10.817693606886399</v>
+        <v>10.0697263748435</v>
       </c>
       <c r="C2">
-        <v>10.805419237911201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.109328606210999</v>
+      </c>
+      <c r="D2">
+        <v>10.197082389090699</v>
+      </c>
+      <c r="E2">
+        <v>10.4810608501574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>10.636972111434799</v>
+        <v>10.7981936384856</v>
       </c>
       <c r="B3">
-        <v>10.3703757655858</v>
+        <v>10.0168054367617</v>
       </c>
       <c r="C3">
-        <v>10.1987171422667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.166779844846999</v>
+      </c>
+      <c r="D3">
+        <v>10.612851538712601</v>
+      </c>
+      <c r="E3">
+        <v>10.792519198738001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10.5438610050881</v>
+        <v>10.443636787831499</v>
       </c>
       <c r="B4">
-        <v>10.8220687868012</v>
+        <v>10.5083359662957</v>
       </c>
       <c r="C4">
-        <v>10.421240876018899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.23902769086</v>
+      </c>
+      <c r="D4">
+        <v>10.979933502453299</v>
+      </c>
+      <c r="E4">
+        <v>10.6548804262054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10.7710545810556</v>
+        <v>10.4773714245076</v>
       </c>
       <c r="B5">
-        <v>10.2615751879238</v>
+        <v>10.956079787627401</v>
       </c>
       <c r="C5">
-        <v>10.0743237618112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.2087019756679</v>
+      </c>
+      <c r="D5">
+        <v>10.9913783540757</v>
+      </c>
+      <c r="E5">
+        <v>10.9006463065936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10.474565413259301</v>
+        <v>10.014318238919</v>
       </c>
       <c r="B6">
-        <v>10.9283844284911</v>
+        <v>10.1463780853278</v>
       </c>
       <c r="C6">
-        <v>10.397241305355299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.4875801489673</v>
+      </c>
+      <c r="D6">
+        <v>10.5507782776585</v>
+      </c>
+      <c r="E6">
+        <v>10.3582037353806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10.1780799205546</v>
+        <v>10.8249564804958</v>
       </c>
       <c r="B7">
-        <v>10.079247163372401</v>
+        <v>10.4798864083346</v>
       </c>
       <c r="C7">
-        <v>10.301505593533101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.5447999998265</v>
+      </c>
+      <c r="D7">
+        <v>10.8865491084042</v>
+      </c>
+      <c r="E7">
+        <v>10.5315732299779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>10.789261506812</v>
+        <v>10.283815387172099</v>
       </c>
       <c r="B8">
-        <v>10.454925880307</v>
+        <v>10.5576122999672</v>
       </c>
       <c r="C8">
-        <v>10.897990408932101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.8732368906209</v>
+      </c>
+      <c r="D8">
+        <v>10.4884777116233</v>
+      </c>
+      <c r="E8">
+        <v>10.096402016797301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10.021917581472801</v>
+        <v>10.214193673561599</v>
       </c>
       <c r="B9">
-        <v>10.553036799540999</v>
+        <v>10.120539781854101</v>
       </c>
       <c r="C9">
-        <v>10.734879238782799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.168040055982001</v>
+      </c>
+      <c r="D9">
+        <v>10.7908443918285</v>
+      </c>
+      <c r="E9">
+        <v>10.316537612404799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10.6633917093934</v>
+        <v>10.6885901563784</v>
       </c>
       <c r="B10">
-        <v>10.3217857608457</v>
+        <v>10.7898682860998</v>
       </c>
       <c r="C10">
-        <v>10.8173631726515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.665071061412901</v>
+      </c>
+      <c r="D10">
+        <v>10.489218120445299</v>
+      </c>
+      <c r="E10">
+        <v>10.3970928402889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10.5677623480134</v>
+        <v>10.932923708592</v>
       </c>
       <c r="B11">
-        <v>10.759644968648299</v>
+        <v>10.181491055289101</v>
       </c>
       <c r="C11">
-        <v>10.799596727032901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.533474915188799</v>
+      </c>
+      <c r="D11">
+        <v>10.615650510329401</v>
+      </c>
+      <c r="E11">
+        <v>10.9731355295042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10.165641863347</v>
+        <v>10.5293716677839</v>
       </c>
       <c r="B12">
-        <v>10.271288389806299</v>
+        <v>10.171948655729</v>
       </c>
       <c r="C12">
-        <v>10.9285038520688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.0329229042149</v>
+      </c>
+      <c r="D12">
+        <v>10.837773510004</v>
+      </c>
+      <c r="E12">
+        <v>10.9250221403843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10.666901345851199</v>
+        <v>10.209527066976801</v>
       </c>
       <c r="B13">
-        <v>10.745501621902999</v>
+        <v>10.3198927635754</v>
       </c>
       <c r="C13">
-        <v>10.8587942992372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.1971423665355</v>
+      </c>
+      <c r="D13">
+        <v>10.2869189808803</v>
+      </c>
+      <c r="E13">
+        <v>10.2976074275191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10.969768694676899</v>
+        <v>10.3263855316155</v>
       </c>
       <c r="B14">
-        <v>10.0370370585053</v>
+        <v>10.049960281338199</v>
       </c>
       <c r="C14">
-        <v>10.379934908432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.1666437296912</v>
+      </c>
+      <c r="D14">
+        <v>10.821135831425201</v>
+      </c>
+      <c r="E14">
+        <v>10.578796053780099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>10.3606630952758</v>
+        <v>10.0683123100192</v>
       </c>
       <c r="B15">
-        <v>10.8586974590709</v>
+        <v>10.3343239375594</v>
       </c>
       <c r="C15">
-        <v>10.7510616211956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.3847004286364</v>
+      </c>
+      <c r="D15">
+        <v>10.639359623712201</v>
+      </c>
+      <c r="E15">
+        <v>10.7361286618682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>10.9493368693512</v>
+        <v>10.4641911500131</v>
       </c>
       <c r="B16">
-        <v>10.3081493099084</v>
+        <v>10.872681165533599</v>
       </c>
       <c r="C16">
-        <v>10.3142801955322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.2445563352983</v>
+      </c>
+      <c r="D16">
+        <v>10.306594708257</v>
+      </c>
+      <c r="E16">
+        <v>10.402280891962601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>10.5972593135164</v>
+        <v>10.7960663979761</v>
       </c>
       <c r="B17">
-        <v>10.507003369515299</v>
+        <v>10.307672633198701</v>
       </c>
       <c r="C17">
-        <v>10.5965413126671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.5597516796593</v>
+      </c>
+      <c r="D17">
+        <v>10.353470491394701</v>
+      </c>
+      <c r="E17">
+        <v>10.294412426896599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>10.3712652505412</v>
+        <v>10.013544410140801</v>
       </c>
       <c r="B18">
-        <v>10.171090887223301</v>
+        <v>10.681395657945499</v>
       </c>
       <c r="C18">
-        <v>10.2065031298085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.849177023269</v>
+      </c>
+      <c r="D18">
+        <v>10.162013516721601</v>
+      </c>
+      <c r="E18">
+        <v>10.376350390916899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>10.3387879713597</v>
+        <v>10.907128022649401</v>
       </c>
       <c r="B19">
-        <v>10.0205482535294</v>
+        <v>10.995556589623501</v>
       </c>
       <c r="C19">
-        <v>10.6919199448041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.045684618482801</v>
+      </c>
+      <c r="D19">
+        <v>10.7957270933511</v>
+      </c>
+      <c r="E19">
+        <v>10.6906621645321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>10.9675532082861</v>
+        <v>10.611963283838501</v>
       </c>
       <c r="B20">
-        <v>10.2070674347018</v>
+        <v>10.8901434164063</v>
       </c>
       <c r="C20">
-        <v>10.299232624862899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.885662300580201</v>
+      </c>
+      <c r="D20">
+        <v>10.311708556536299</v>
+      </c>
+      <c r="E20">
+        <v>10.561819908917499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>10.933220614607899</v>
+        <v>10.988548238417</v>
       </c>
       <c r="B21">
-        <v>10.0226814691469</v>
+        <v>10.3041951956689</v>
       </c>
       <c r="C21">
-        <v>10.8332020729219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.2076404976963</v>
+      </c>
+      <c r="D21">
+        <v>10.297457932492501</v>
+      </c>
+      <c r="E21">
+        <v>10.6063399669581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>10.048647202669001</v>
+        <v>10.9596438669482</v>
       </c>
       <c r="B22">
-        <v>10.416435849485399</v>
+        <v>10.716221808735799</v>
       </c>
       <c r="C22">
-        <v>10.7636094852928</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.2527637374879</v>
+      </c>
+      <c r="D22">
+        <v>10.339385230880501</v>
+      </c>
+      <c r="E22">
+        <v>10.7907421231013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>10.1083348543719</v>
+        <v>10.941671400623701</v>
       </c>
       <c r="B23">
-        <v>10.3251737638432</v>
+        <v>10.325551388656701</v>
       </c>
       <c r="C23">
-        <v>10.9303447350204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.6278387753965</v>
+      </c>
+      <c r="D23">
+        <v>10.406161639261599</v>
+      </c>
+      <c r="E23">
+        <v>10.084124778087499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>10.718286324818701</v>
+        <v>10.032880759356001</v>
       </c>
       <c r="B24">
-        <v>10.235778875870899</v>
+        <v>10.8436086797643</v>
       </c>
       <c r="C24">
-        <v>10.8518183453593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.5747169717289</v>
+      </c>
+      <c r="D24">
+        <v>10.7932114141553</v>
+      </c>
+      <c r="E24">
+        <v>10.2199388285123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>10.8599877081776</v>
+        <v>10.530784661112399</v>
       </c>
       <c r="B25">
-        <v>10.8910371762748</v>
+        <v>10.6386517109368</v>
       </c>
       <c r="C25">
-        <v>10.049231060279499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.3814154507039</v>
+      </c>
+      <c r="D25">
+        <v>10.2661048223289</v>
+      </c>
+      <c r="E25">
+        <v>10.4652923152615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>10.333181174099201</v>
+        <v>10.143887942138299</v>
       </c>
       <c r="B26">
-        <v>10.8069498973392</v>
+        <v>10.6131813207228</v>
       </c>
       <c r="C26">
-        <v>10.555089349272199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.846964456338</v>
+      </c>
+      <c r="D26">
+        <v>10.7527257238403</v>
+      </c>
+      <c r="E26">
+        <v>10.709287984264501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>10.158007673095801</v>
+        <v>10.4463125626025</v>
       </c>
       <c r="B27">
-        <v>10.145585637888701</v>
+        <v>10.616871228696899</v>
       </c>
       <c r="C27">
-        <v>10.102995388598201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.023976161056501</v>
+      </c>
+      <c r="D27">
+        <v>10.7898332916443</v>
+      </c>
+      <c r="E27">
+        <v>10.371652840574001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10.191995844269</v>
+        <v>10.605258926157999</v>
       </c>
       <c r="B28">
-        <v>10.6640868295374</v>
+        <v>10.9389066700402</v>
       </c>
       <c r="C28">
-        <v>10.1270463638145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.570871142999099</v>
+      </c>
+      <c r="D28">
+        <v>10.142736709242801</v>
+      </c>
+      <c r="E28">
+        <v>10.101124120483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>10.2621282518169</v>
+        <v>10.859041950736801</v>
       </c>
       <c r="B29">
-        <v>10.9515624029387</v>
+        <v>10.3742611328364</v>
       </c>
       <c r="C29">
-        <v>10.994076174852401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.9782879874305</v>
+      </c>
+      <c r="D29">
+        <v>10.1293583352591</v>
+      </c>
+      <c r="E29">
+        <v>10.6815968413196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>10.617467737147001</v>
+        <v>10.2455019038216</v>
       </c>
       <c r="B30">
-        <v>10.630476657684699</v>
+        <v>10.5357500001146</v>
       </c>
       <c r="C30">
-        <v>10.109181969410299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.3544153553933</v>
+      </c>
+      <c r="D30">
+        <v>10.476850164493699</v>
+      </c>
+      <c r="E30">
+        <v>10.4519522910707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>10.582719788178601</v>
+        <v>10.4093248077026</v>
       </c>
       <c r="B31">
-        <v>10.2135319014301</v>
+        <v>10.218073581414901</v>
       </c>
       <c r="C31">
-        <v>10.7650016843701</v>
+        <v>10.805436341354699</v>
+      </c>
+      <c r="D31">
+        <v>10.207036189642899</v>
+      </c>
+      <c r="E31">
+        <v>10.4424067023189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10.3238214650674</v>
+      </c>
+      <c r="B32">
+        <v>10.9271752334373</v>
+      </c>
+      <c r="C32">
+        <v>10.368915774941501</v>
+      </c>
+      <c r="D32">
+        <v>10.5330196045599</v>
+      </c>
+      <c r="E32">
+        <v>10.4360213584796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10.6123922258663</v>
+      </c>
+      <c r="B33">
+        <v>10.106294829218699</v>
+      </c>
+      <c r="C33">
+        <v>10.807821447196099</v>
+      </c>
+      <c r="D33">
+        <v>10.8428421748105</v>
+      </c>
+      <c r="E33">
+        <v>10.3596503902868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10.009687946468899</v>
+      </c>
+      <c r="B34">
+        <v>10.387690268655</v>
+      </c>
+      <c r="C34">
+        <v>10.5133551608518</v>
+      </c>
+      <c r="D34">
+        <v>10.8993750413253</v>
+      </c>
+      <c r="E34">
+        <v>10.044515349116599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10.609795380351599</v>
+      </c>
+      <c r="B35">
+        <v>10.4802030152466</v>
+      </c>
+      <c r="C35">
+        <v>10.689155841157101</v>
+      </c>
+      <c r="D35">
+        <v>10.7459472916076</v>
+      </c>
+      <c r="E35">
+        <v>10.730632018698101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>10.5879742996609</v>
+      </c>
+      <c r="B36">
+        <v>10.841691444159199</v>
+      </c>
+      <c r="C36">
+        <v>10.755183685657</v>
+      </c>
+      <c r="D36">
+        <v>10.931191061923601</v>
+      </c>
+      <c r="E36">
+        <v>10.9700341286729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>10.815077981058501</v>
+      </c>
+      <c r="B37">
+        <v>10.1655321090188</v>
+      </c>
+      <c r="C37">
+        <v>10.514063687336501</v>
+      </c>
+      <c r="D37">
+        <v>10.0561499482057</v>
+      </c>
+      <c r="E37">
+        <v>10.535208134267499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>10.221700628367801</v>
+      </c>
+      <c r="B38">
+        <v>10.607176076453801</v>
+      </c>
+      <c r="C38">
+        <v>10.022427530029599</v>
+      </c>
+      <c r="D38">
+        <v>10.200658758615701</v>
+      </c>
+      <c r="E38">
+        <v>10.091305632533301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>10.278523384529199</v>
+      </c>
+      <c r="B39">
+        <v>10.2649476765584</v>
+      </c>
+      <c r="C39">
+        <v>10.837859502697899</v>
+      </c>
+      <c r="D39">
+        <v>10.4774378016214</v>
+      </c>
+      <c r="E39">
+        <v>10.9385424859876</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>10.8457947250032</v>
+      </c>
+      <c r="B40">
+        <v>10.9888190750971</v>
+      </c>
+      <c r="C40">
+        <v>10.5352762664632</v>
+      </c>
+      <c r="D40">
+        <v>10.961014161671701</v>
+      </c>
+      <c r="E40">
+        <v>10.963776211056899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10.302069767426699</v>
+      </c>
+      <c r="B41">
+        <v>10.4514157636539</v>
+      </c>
+      <c r="C41">
+        <v>10.2519906665578</v>
+      </c>
+      <c r="D41">
+        <v>10.9652241869656</v>
+      </c>
+      <c r="E41">
+        <v>10.009417386550201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>10.041000433581999</v>
+      </c>
+      <c r="B42">
+        <v>10.422747043184801</v>
+      </c>
+      <c r="C42">
+        <v>10.5638068970575</v>
+      </c>
+      <c r="D42">
+        <v>10.370924396520801</v>
+      </c>
+      <c r="E42">
+        <v>10.3636046523206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>10.0427990318617</v>
+      </c>
+      <c r="B43">
+        <v>10.889949786321401</v>
+      </c>
+      <c r="C43">
+        <v>10.999994730033199</v>
+      </c>
+      <c r="D43">
+        <v>10.709815303988201</v>
+      </c>
+      <c r="E43">
+        <v>10.5673685047605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10.299912100395201</v>
+      </c>
+      <c r="B44">
+        <v>10.377805393249799</v>
+      </c>
+      <c r="C44">
+        <v>10.887639441520699</v>
+      </c>
+      <c r="D44">
+        <v>10.453234573318101</v>
+      </c>
+      <c r="E44">
+        <v>10.222330903212301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>10.652526833054701</v>
+      </c>
+      <c r="B45">
+        <v>10.4742648565647</v>
+      </c>
+      <c r="C45">
+        <v>10.327896490475499</v>
+      </c>
+      <c r="D45">
+        <v>10.949420377215199</v>
+      </c>
+      <c r="E45">
+        <v>10.690628074672301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>10.1323864526391</v>
+      </c>
+      <c r="B46">
+        <v>10.7747676962739</v>
+      </c>
+      <c r="C46">
+        <v>10.2935938863244</v>
+      </c>
+      <c r="D46">
+        <v>10.930648056506399</v>
+      </c>
+      <c r="E46">
+        <v>10.221124739898899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>10.8925812621665</v>
+      </c>
+      <c r="B47">
+        <v>10.545113195621999</v>
+      </c>
+      <c r="C47">
+        <v>10.2899893649913</v>
+      </c>
+      <c r="D47">
+        <v>10.4534541667174</v>
+      </c>
+      <c r="E47">
+        <v>10.0484687903141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>10.3259505522604</v>
+      </c>
+      <c r="B48">
+        <v>10.4094538347638</v>
+      </c>
+      <c r="C48">
+        <v>10.392895893673501</v>
+      </c>
+      <c r="D48">
+        <v>10.402280409400101</v>
+      </c>
+      <c r="E48">
+        <v>10.409075173394999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>10.282038633813899</v>
+      </c>
+      <c r="B49">
+        <v>10.1315598437548</v>
+      </c>
+      <c r="C49">
+        <v>10.3412218102719</v>
+      </c>
+      <c r="D49">
+        <v>10.8863435122281</v>
+      </c>
+      <c r="E49">
+        <v>10.310170065373899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>10.1448669633662</v>
+      </c>
+      <c r="B50">
+        <v>10.4878441576006</v>
+      </c>
+      <c r="C50">
+        <v>10.084535688159001</v>
+      </c>
+      <c r="D50">
+        <v>10.8954709510034</v>
+      </c>
+      <c r="E50">
+        <v>10.952258025129099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>10.4553389049156</v>
+      </c>
+      <c r="B51">
+        <v>10.509238091106001</v>
+      </c>
+      <c r="C51">
+        <v>10.1551319803526</v>
+      </c>
+      <c r="D51">
+        <v>10.9054010326889</v>
+      </c>
+      <c r="E51">
+        <v>10.901336798150901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>10.0782100954229</v>
+      </c>
+      <c r="B52">
+        <v>10.9384129883684</v>
+      </c>
+      <c r="C52">
+        <v>10.1301437777299</v>
+      </c>
+      <c r="D52">
+        <v>10.2717722590174</v>
+      </c>
+      <c r="E52">
+        <v>10.572977798642899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>10.2907264661692</v>
+      </c>
+      <c r="B53">
+        <v>10.941651733391801</v>
+      </c>
+      <c r="C53">
+        <v>10.2894380314569</v>
+      </c>
+      <c r="D53">
+        <v>10.751985410922099</v>
+      </c>
+      <c r="E53">
+        <v>10.255344228031101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>10.588024044904801</v>
+      </c>
+      <c r="B54">
+        <v>10.963860048086</v>
+      </c>
+      <c r="C54">
+        <v>10.552990397550699</v>
+      </c>
+      <c r="D54">
+        <v>10.6360357889195</v>
+      </c>
+      <c r="E54">
+        <v>10.2062331023475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>10.1037362569975</v>
+      </c>
+      <c r="B55">
+        <v>10.9329407425203</v>
+      </c>
+      <c r="C55">
+        <v>10.950297080252801</v>
+      </c>
+      <c r="D55">
+        <v>10.718044816415601</v>
+      </c>
+      <c r="E55">
+        <v>10.6697415396198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>10.742308757207899</v>
+      </c>
+      <c r="B56">
+        <v>10.568557630994601</v>
+      </c>
+      <c r="C56">
+        <v>10.126549584124801</v>
+      </c>
+      <c r="D56">
+        <v>10.1149709853287</v>
+      </c>
+      <c r="E56">
+        <v>10.2665551644762</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>10.282291663877</v>
+      </c>
+      <c r="B57">
+        <v>10.373984774700601</v>
+      </c>
+      <c r="C57">
+        <v>10.946937455468399</v>
+      </c>
+      <c r="D57">
+        <v>10.4665173575255</v>
+      </c>
+      <c r="E57">
+        <v>10.2899298657931</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10.619098621423801</v>
+      </c>
+      <c r="B58">
+        <v>10.4426921441373</v>
+      </c>
+      <c r="C58">
+        <v>10.775520471665599</v>
+      </c>
+      <c r="D58">
+        <v>10.318857589153</v>
+      </c>
+      <c r="E58">
+        <v>10.955084192639401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>10.3692629715718</v>
+      </c>
+      <c r="B59">
+        <v>10.108169715998701</v>
+      </c>
+      <c r="C59">
+        <v>10.2389909392896</v>
+      </c>
+      <c r="D59">
+        <v>10.7498055194775</v>
+      </c>
+      <c r="E59">
+        <v>10.6708957099285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>10.9964602127608</v>
+      </c>
+      <c r="B60">
+        <v>10.2364518548322</v>
+      </c>
+      <c r="C60">
+        <v>10.9650966128855</v>
+      </c>
+      <c r="D60">
+        <v>10.907059337187601</v>
+      </c>
+      <c r="E60">
+        <v>10.082056433378501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10.263542943692</v>
+      </c>
+      <c r="B61">
+        <v>10.553755904281401</v>
+      </c>
+      <c r="C61">
+        <v>10.9651167810733</v>
+      </c>
+      <c r="D61">
+        <v>10.204553562488201</v>
+      </c>
+      <c r="E61">
+        <v>10.2759498799517</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>10.856188606840499</v>
+      </c>
+      <c r="B62">
+        <v>10.858173110084399</v>
+      </c>
+      <c r="C62">
+        <v>10.0662215111421</v>
+      </c>
+      <c r="D62">
+        <v>10.2286184226825</v>
+      </c>
+      <c r="E62">
+        <v>10.039764730305301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>10.7985847822581</v>
+      </c>
+      <c r="B63">
+        <v>10.2378486941508</v>
+      </c>
+      <c r="C63">
+        <v>10.7450884356053</v>
+      </c>
+      <c r="D63">
+        <v>10.799184823660401</v>
+      </c>
+      <c r="E63">
+        <v>10.813320190967101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>10.178926247391299</v>
+      </c>
+      <c r="B64">
+        <v>10.618275909882099</v>
+      </c>
+      <c r="C64">
+        <v>10.3368542190052</v>
+      </c>
+      <c r="D64">
+        <v>10.270763031960101</v>
+      </c>
+      <c r="E64">
+        <v>10.6483395117207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>10.1615020286493</v>
+      </c>
+      <c r="B65">
+        <v>10.8441318826684</v>
+      </c>
+      <c r="C65">
+        <v>10.3482124589089</v>
+      </c>
+      <c r="D65">
+        <v>10.632057119056901</v>
+      </c>
+      <c r="E65">
+        <v>10.4069534716748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>10.267699573260799</v>
+      </c>
+      <c r="B66">
+        <v>10.460896758250501</v>
+      </c>
+      <c r="C66">
+        <v>10.6796952345466</v>
+      </c>
+      <c r="D66">
+        <v>10.4832175351071</v>
+      </c>
+      <c r="E66">
+        <v>10.3953788360482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>10.4394533756647</v>
+      </c>
+      <c r="B67">
+        <v>10.0566292071366</v>
+      </c>
+      <c r="C67">
+        <v>10.3772033144737</v>
+      </c>
+      <c r="D67">
+        <v>10.7248452327329</v>
+      </c>
+      <c r="E67">
+        <v>10.021080589911399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>10.074221340105201</v>
+      </c>
+      <c r="B68">
+        <v>10.596263683849299</v>
+      </c>
+      <c r="C68">
+        <v>10.5997946632558</v>
+      </c>
+      <c r="D68">
+        <v>10.624612409032601</v>
+      </c>
+      <c r="E68">
+        <v>10.2769128292056</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>10.4281608810408</v>
+      </c>
+      <c r="B69">
+        <v>10.092358676869599</v>
+      </c>
+      <c r="C69">
+        <v>10.8947915910273</v>
+      </c>
+      <c r="D69">
+        <v>10.8529760589331</v>
+      </c>
+      <c r="E69">
+        <v>10.506485109935699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>10.9419861413409</v>
+      </c>
+      <c r="B70">
+        <v>10.7377459284533</v>
+      </c>
+      <c r="C70">
+        <v>10.047852576086701</v>
+      </c>
+      <c r="D70">
+        <v>10.513879212702999</v>
+      </c>
+      <c r="E70">
+        <v>10.876334596158401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>10.739016356861899</v>
+      </c>
+      <c r="B71">
+        <v>10.6105756349851</v>
+      </c>
+      <c r="C71">
+        <v>10.830939267388001</v>
+      </c>
+      <c r="D71">
+        <v>10.2500659758095</v>
+      </c>
+      <c r="E71">
+        <v>10.388875607836299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>10.379378434058699</v>
+      </c>
+      <c r="B72">
+        <v>10.570540962092</v>
+      </c>
+      <c r="C72">
+        <v>10.4215415750636</v>
+      </c>
+      <c r="D72">
+        <v>10.0735977084789</v>
+      </c>
+      <c r="E72">
+        <v>10.1372491328052</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>10.0628732667822</v>
+      </c>
+      <c r="B73">
+        <v>10.085132098755899</v>
+      </c>
+      <c r="C73">
+        <v>10.287548352695399</v>
+      </c>
+      <c r="D73">
+        <v>10.796007963082101</v>
+      </c>
+      <c r="E73">
+        <v>10.223351226941</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>10.936648084930701</v>
+      </c>
+      <c r="B74">
+        <v>10.113435436671001</v>
+      </c>
+      <c r="C74">
+        <v>10.622106561006101</v>
+      </c>
+      <c r="D74">
+        <v>10.818876049165899</v>
+      </c>
+      <c r="E74">
+        <v>10.0007190049821</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>10.222676767006201</v>
+      </c>
+      <c r="B75">
+        <v>10.7026830549233</v>
+      </c>
+      <c r="C75">
+        <v>10.196285582511001</v>
+      </c>
+      <c r="D75">
+        <v>10.9610836056506</v>
+      </c>
+      <c r="E75">
+        <v>10.255802223442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>10.570887498453001</v>
+      </c>
+      <c r="B76">
+        <v>10.4104067283111</v>
+      </c>
+      <c r="C76">
+        <v>10.1220658961153</v>
+      </c>
+      <c r="D76">
+        <v>10.7088512951839</v>
+      </c>
+      <c r="E76">
+        <v>10.1763718505065</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>10.8492012226697</v>
+      </c>
+      <c r="B77">
+        <v>10.959074363621699</v>
+      </c>
+      <c r="C77">
+        <v>10.3924080501051</v>
+      </c>
+      <c r="D77">
+        <v>10.614609613655899</v>
+      </c>
+      <c r="E77">
+        <v>10.383333063359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>10.6993072381172</v>
+      </c>
+      <c r="B78">
+        <v>10.731870212308101</v>
+      </c>
+      <c r="C78">
+        <v>10.805677168083999</v>
+      </c>
+      <c r="D78">
+        <v>10.8053467617005</v>
+      </c>
+      <c r="E78">
+        <v>10.7092186001345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>10.1611754095712</v>
+      </c>
+      <c r="B79">
+        <v>10.251851042538</v>
+      </c>
+      <c r="C79">
+        <v>10.1165262093196</v>
+      </c>
+      <c r="D79">
+        <v>10.769749666785399</v>
+      </c>
+      <c r="E79">
+        <v>10.275558984827001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>10.717122873441699</v>
+      </c>
+      <c r="B80">
+        <v>10.0960467462693</v>
+      </c>
+      <c r="C80">
+        <v>10.3385804621305</v>
+      </c>
+      <c r="D80">
+        <v>10.674328195938999</v>
+      </c>
+      <c r="E80">
+        <v>10.5971977574204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>10.941203324310701</v>
+      </c>
+      <c r="B81">
+        <v>10.345069535218601</v>
+      </c>
+      <c r="C81">
+        <v>10.5413058440248</v>
+      </c>
+      <c r="D81">
+        <v>10.250703457236799</v>
+      </c>
+      <c r="E81">
+        <v>10.718602840799001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>10.920817298391301</v>
+      </c>
+      <c r="B82">
+        <v>10.313093919801201</v>
+      </c>
+      <c r="C82">
+        <v>10.1725894605147</v>
+      </c>
+      <c r="D82">
+        <v>10.593936138882899</v>
+      </c>
+      <c r="E82">
+        <v>10.0479361083132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>10.232338383756099</v>
+      </c>
+      <c r="B83">
+        <v>10.819552345485199</v>
+      </c>
+      <c r="C83">
+        <v>10.3002935448364</v>
+      </c>
+      <c r="D83">
+        <v>10.267528082454801</v>
+      </c>
+      <c r="E83">
+        <v>10.0775645706241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>10.639500986918801</v>
+      </c>
+      <c r="B84">
+        <v>10.2567992661396</v>
+      </c>
+      <c r="C84">
+        <v>10.7543999658525</v>
+      </c>
+      <c r="D84">
+        <v>10.639774374853699</v>
+      </c>
+      <c r="E84">
+        <v>10.640192279784801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>10.3434281902567</v>
+      </c>
+      <c r="B85">
+        <v>10.6060494534716</v>
+      </c>
+      <c r="C85">
+        <v>10.837255053958801</v>
+      </c>
+      <c r="D85">
+        <v>10.223442073567201</v>
+      </c>
+      <c r="E85">
+        <v>10.3356221765764</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>10.5049618621071</v>
+      </c>
+      <c r="B86">
+        <v>10.887497928998799</v>
+      </c>
+      <c r="C86">
+        <v>10.4362017184715</v>
+      </c>
+      <c r="D86">
+        <v>10.9549505040921</v>
+      </c>
+      <c r="E86">
+        <v>10.2832325427939</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>10.291016811952099</v>
+      </c>
+      <c r="B87">
+        <v>10.952532957085999</v>
+      </c>
+      <c r="C87">
+        <v>10.7724592837216</v>
+      </c>
+      <c r="D87">
+        <v>10.9007188293282</v>
+      </c>
+      <c r="E87">
+        <v>10.218567484108799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>10.9807916522324</v>
+      </c>
+      <c r="B88">
+        <v>10.830590340236499</v>
+      </c>
+      <c r="C88">
+        <v>10.473675004847999</v>
+      </c>
+      <c r="D88">
+        <v>10.355976810362399</v>
+      </c>
+      <c r="E88">
+        <v>10.886835943550899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>10.3890384155489</v>
+      </c>
+      <c r="B89">
+        <v>10.7160982315014</v>
+      </c>
+      <c r="C89">
+        <v>10.226434401497</v>
+      </c>
+      <c r="D89">
+        <v>10.919867716109801</v>
+      </c>
+      <c r="E89">
+        <v>10.176160304614401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>10.2961278487945</v>
+      </c>
+      <c r="B90">
+        <v>10.264156691153801</v>
+      </c>
+      <c r="C90">
+        <v>10.227622100565901</v>
+      </c>
+      <c r="D90">
+        <v>10.966757883469599</v>
+      </c>
+      <c r="E90">
+        <v>10.228214083370201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>10.002598719365499</v>
+      </c>
+      <c r="B91">
+        <v>10.7501943650205</v>
+      </c>
+      <c r="C91">
+        <v>10.6880100761003</v>
+      </c>
+      <c r="D91">
+        <v>10.291558842101299</v>
+      </c>
+      <c r="E91">
+        <v>10.732490359603799</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>10.990471112620501</v>
+      </c>
+      <c r="B92">
+        <v>10.234002086498499</v>
+      </c>
+      <c r="C92">
+        <v>10.643358660992099</v>
+      </c>
+      <c r="D92">
+        <v>10.186766841308501</v>
+      </c>
+      <c r="E92">
+        <v>10.9068450771108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>10.262903359490601</v>
+      </c>
+      <c r="B93">
+        <v>10.5450862007996</v>
+      </c>
+      <c r="C93">
+        <v>10.8221837518636</v>
+      </c>
+      <c r="D93">
+        <v>10.805726248776599</v>
+      </c>
+      <c r="E93">
+        <v>10.3521017374877</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>10.2965287275702</v>
+      </c>
+      <c r="B94">
+        <v>10.485688775466301</v>
+      </c>
+      <c r="C94">
+        <v>10.969201505585</v>
+      </c>
+      <c r="D94">
+        <v>10.004311744175</v>
+      </c>
+      <c r="E94">
+        <v>10.0146778940742</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>10.1353960560727</v>
+      </c>
+      <c r="B95">
+        <v>10.2276136311024</v>
+      </c>
+      <c r="C95">
+        <v>10.9251606729805</v>
+      </c>
+      <c r="D95">
+        <v>10.684860020838901</v>
+      </c>
+      <c r="E95">
+        <v>10.897851637514901</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>10.856500463604901</v>
+      </c>
+      <c r="B96">
+        <v>10.3310107420299</v>
+      </c>
+      <c r="C96">
+        <v>10.821551552406399</v>
+      </c>
+      <c r="D96">
+        <v>10.969084016846701</v>
+      </c>
+      <c r="E96">
+        <v>10.618835381296901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>10.788642578161101</v>
+      </c>
+      <c r="B97">
+        <v>10.6661486812686</v>
+      </c>
+      <c r="C97">
+        <v>10.9986684478102</v>
+      </c>
+      <c r="D97">
+        <v>10.7580044308163</v>
+      </c>
+      <c r="E97">
+        <v>10.829151339321299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>10.7599663988823</v>
+      </c>
+      <c r="B98">
+        <v>10.2239677355473</v>
+      </c>
+      <c r="C98">
+        <v>10.681873213093001</v>
+      </c>
+      <c r="D98">
+        <v>10.4987739312665</v>
+      </c>
+      <c r="E98">
+        <v>10.865106067060101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>10.206416933177801</v>
+      </c>
+      <c r="B99">
+        <v>10.8518434049716</v>
+      </c>
+      <c r="C99">
+        <v>10.3929138524294</v>
+      </c>
+      <c r="D99">
+        <v>10.914822090928</v>
+      </c>
+      <c r="E99">
+        <v>10.9251282708576</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>10.4216266216545</v>
+      </c>
+      <c r="B100">
+        <v>10.605529023988501</v>
+      </c>
+      <c r="C100">
+        <v>10.1143759107</v>
+      </c>
+      <c r="D100">
+        <v>10.6520848825085</v>
+      </c>
+      <c r="E100">
+        <v>10.666089862598501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>10.4464045828419</v>
+      </c>
+      <c r="B101">
+        <v>10.916282864299101</v>
+      </c>
+      <c r="C101">
+        <v>10.9904923198433</v>
+      </c>
+      <c r="D101">
+        <v>10.913537495028599</v>
+      </c>
+      <c r="E101">
+        <v>10.174372728932701</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>10.4646176184601</v>
+      </c>
+      <c r="B102">
+        <v>10.709375361392301</v>
+      </c>
+      <c r="C102">
+        <v>10.105917278573701</v>
+      </c>
+      <c r="D102">
+        <v>10.087721231805499</v>
+      </c>
+      <c r="E102">
+        <v>10.6779741935686</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>10.0934022747689</v>
+      </c>
+      <c r="B103">
+        <v>10.1788940616393</v>
+      </c>
+      <c r="C103">
+        <v>10.725711688622299</v>
+      </c>
+      <c r="D103">
+        <v>10.863828459009</v>
+      </c>
+      <c r="E103">
+        <v>10.9977474801893</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>10.9107967100941</v>
+      </c>
+      <c r="B104">
+        <v>10.5626210025065</v>
+      </c>
+      <c r="C104">
+        <v>10.975994986122</v>
+      </c>
+      <c r="D104">
+        <v>10.253330028261599</v>
+      </c>
+      <c r="E104">
+        <v>10.3053072876142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>10.380745770776199</v>
+      </c>
+      <c r="B105">
+        <v>10.2665285732746</v>
+      </c>
+      <c r="C105">
+        <v>10.104325432782399</v>
+      </c>
+      <c r="D105">
+        <v>10.4471822656695</v>
+      </c>
+      <c r="E105">
+        <v>10.942097388624701</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>10.067949745458501</v>
+      </c>
+      <c r="B106">
+        <v>10.0515962829356</v>
+      </c>
+      <c r="C106">
+        <v>10.825890435237699</v>
+      </c>
+      <c r="D106">
+        <v>10.3304316270908</v>
+      </c>
+      <c r="E106">
+        <v>10.716939404586199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>10.4117558748194</v>
+      </c>
+      <c r="B107">
+        <v>10.079713216169599</v>
+      </c>
+      <c r="C107">
+        <v>10.4800991598041</v>
+      </c>
+      <c r="D107">
+        <v>10.5353349887099</v>
+      </c>
+      <c r="E107">
+        <v>10.505629790556201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>10.0031574100569</v>
+      </c>
+      <c r="B108">
+        <v>10.128406436048801</v>
+      </c>
+      <c r="C108">
+        <v>10.689723079990801</v>
+      </c>
+      <c r="D108">
+        <v>10.6930502840325</v>
+      </c>
+      <c r="E108">
+        <v>10.052339657556599</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>10.1336704017186</v>
+      </c>
+      <c r="B109">
+        <v>10.3644523065242</v>
+      </c>
+      <c r="C109">
+        <v>10.2799596274661</v>
+      </c>
+      <c r="D109">
+        <v>10.5861576538669</v>
+      </c>
+      <c r="E109">
+        <v>10.396893542154499</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>10.507790163894301</v>
+      </c>
+      <c r="B110">
+        <v>10.3517075119798</v>
+      </c>
+      <c r="C110">
+        <v>10.5730298548417</v>
+      </c>
+      <c r="D110">
+        <v>10.107783901091199</v>
+      </c>
+      <c r="E110">
+        <v>10.532469164455501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>10.4653880418666</v>
+      </c>
+      <c r="B111">
+        <v>10.2012078066904</v>
+      </c>
+      <c r="C111">
+        <v>10.680379548781</v>
+      </c>
+      <c r="D111">
+        <v>10.8202035874027</v>
+      </c>
+      <c r="E111">
+        <v>10.2021016347484</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>10.0424432716526</v>
+      </c>
+      <c r="B112">
+        <v>10.729222416613201</v>
+      </c>
+      <c r="C112">
+        <v>10.302330980132201</v>
+      </c>
+      <c r="D112">
+        <v>10.605753006963401</v>
+      </c>
+      <c r="E112">
+        <v>10.370754561743601</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>10.795976205291099</v>
+      </c>
+      <c r="B113">
+        <v>10.505044858306</v>
+      </c>
+      <c r="C113">
+        <v>10.0983039276257</v>
+      </c>
+      <c r="D113">
+        <v>10.053053526905201</v>
+      </c>
+      <c r="E113">
+        <v>10.5426120600253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>10.659415516992601</v>
+      </c>
+      <c r="B114">
+        <v>10.039663789813901</v>
+      </c>
+      <c r="C114">
+        <v>10.399244289446001</v>
+      </c>
+      <c r="D114">
+        <v>10.227363773268101</v>
+      </c>
+      <c r="E114">
+        <v>10.643536242568899</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>10.6337342228083</v>
+      </c>
+      <c r="B115">
+        <v>10.834769987542201</v>
+      </c>
+      <c r="C115">
+        <v>10.216573439775299</v>
+      </c>
+      <c r="D115">
+        <v>10.2123696979993</v>
+      </c>
+      <c r="E115">
+        <v>10.852594502917899</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>10.2820102340443</v>
+      </c>
+      <c r="B116">
+        <v>10.935549419285101</v>
+      </c>
+      <c r="C116">
+        <v>10.399133988094199</v>
+      </c>
+      <c r="D116">
+        <v>10.5863664030206</v>
+      </c>
+      <c r="E116">
+        <v>10.171047011506101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>10.918150353870599</v>
+      </c>
+      <c r="B117">
+        <v>10.7866232942336</v>
+      </c>
+      <c r="C117">
+        <v>10.633696420588199</v>
+      </c>
+      <c r="D117">
+        <v>10.7921801071376</v>
+      </c>
+      <c r="E117">
+        <v>10.4896001700077</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>10.1150149284333</v>
+      </c>
+      <c r="B118">
+        <v>10.3871984889513</v>
+      </c>
+      <c r="C118">
+        <v>10.168581845920601</v>
+      </c>
+      <c r="D118">
+        <v>10.180737589694401</v>
+      </c>
+      <c r="E118">
+        <v>10.8958544232972</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>10.5087710571502</v>
+      </c>
+      <c r="B119">
+        <v>10.872241720969701</v>
+      </c>
+      <c r="C119">
+        <v>10.405720447638499</v>
+      </c>
+      <c r="D119">
+        <v>10.9107413038529</v>
+      </c>
+      <c r="E119">
+        <v>10.0483532687383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>10.9918060607291</v>
+      </c>
+      <c r="B120">
+        <v>10.1304188926573</v>
+      </c>
+      <c r="C120">
+        <v>10.558497894704599</v>
+      </c>
+      <c r="D120">
+        <v>10.5740643543008</v>
+      </c>
+      <c r="E120">
+        <v>10.6234877508721</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>10.862804525503901</v>
+      </c>
+      <c r="B121">
+        <v>10.7376296568504</v>
+      </c>
+      <c r="C121">
+        <v>10.2703882160683</v>
+      </c>
+      <c r="D121">
+        <v>10.971564071690301</v>
+      </c>
+      <c r="E121">
+        <v>10.2916755474828</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>10.321190286872399</v>
+      </c>
+      <c r="B122">
+        <v>10.184084435699001</v>
+      </c>
+      <c r="C122">
+        <v>10.8522749606439</v>
+      </c>
+      <c r="D122">
+        <v>10.449748556585501</v>
+      </c>
+      <c r="E122">
+        <v>10.119539994902</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>10.9174692991215</v>
+      </c>
+      <c r="B123">
+        <v>10.7503571080114</v>
+      </c>
+      <c r="C123">
+        <v>10.1156448567741</v>
+      </c>
+      <c r="D123">
+        <v>10.0598757663033</v>
+      </c>
+      <c r="E123">
+        <v>10.257042371467801</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>10.3390330593732</v>
+      </c>
+      <c r="B124">
+        <v>10.1634089779575</v>
+      </c>
+      <c r="C124">
+        <v>10.517226567075101</v>
+      </c>
+      <c r="D124">
+        <v>10.193744392992</v>
+      </c>
+      <c r="E124">
+        <v>10.9465348606582</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>10.977776504127201</v>
+      </c>
+      <c r="B125">
+        <v>10.3515915811747</v>
+      </c>
+      <c r="C125">
+        <v>10.073205895878401</v>
+      </c>
+      <c r="D125">
+        <v>10.546373309770599</v>
+      </c>
+      <c r="E125">
+        <v>10.7904232976767</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>10.971746532820699</v>
+      </c>
+      <c r="B126">
+        <v>10.3484254793527</v>
+      </c>
+      <c r="C126">
+        <v>10.147820227172801</v>
+      </c>
+      <c r="D126">
+        <v>10.489283829866199</v>
+      </c>
+      <c r="E126">
+        <v>10.895769763123299</v>
       </c>
     </row>
   </sheetData>
